--- a/OnBoard/output/trust/catch/Catch_Trust_19.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_19.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -437,16 +437,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Blennius ocellaris</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G2">
-        <v>0.048</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Arnoglossus thori</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="G3">
-        <v>0.175</v>
+        <v>0.006</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,16 +519,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Blennius ocellaris</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.305</v>
+        <v>0.02</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lepidotrigla cavillone</t>
+          <t>Boops boops</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>BOOPBOO</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Citharus linguatula</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.057</v>
+        <v>0.067</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -642,19 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Microchirus ocellatus</t>
+          <t>Lepidotrigla cavillone</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="G7">
-        <v>0.021</v>
+        <v>0.031</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -663,7 +663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -683,16 +683,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mullus barbatus</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.048</v>
+        <v>0.036</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -724,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Octopus vulgaris</t>
+          <t>Mullus barbatus</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OCTOVUL</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.078</v>
+        <v>0.093</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -745,7 +745,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="G10">
-        <v>0.06900000000000001</v>
+        <v>0.288</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -786,7 +786,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="G11">
-        <v>2.456</v>
+        <v>0.165</v>
       </c>
       <c r="H11">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -827,7 +827,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,19 +847,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Scophthalmus rhombus</t>
+          <t>Scorpaena notata</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.51</v>
+        <v>1.069</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -888,19 +888,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Scorpaena notata</t>
+          <t>Scorpaena scrofa</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="G13">
-        <v>1.453</v>
+        <v>0.24</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -909,7 +909,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -929,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Scorpaena scrofa</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.104</v>
+        <v>0.874</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -950,7 +950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G15">
-        <v>0.051</v>
+        <v>0.024</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="G16">
-        <v>1.599</v>
+        <v>1.482</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1032,7 +1032,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="G17">
-        <v>0.025</v>
+        <v>0.131</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="G18">
-        <v>0.074</v>
+        <v>0.02</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1143,10 +1143,10 @@
         </is>
       </c>
       <c r="G19">
-        <v>0.145</v>
+        <v>0.024</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1155,7 +1155,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1175,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Buglossidium luteum</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.014</v>
+        <v>0.513</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1196,7 +1196,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1216,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Citharus linguatula</t>
+          <t>Lepidotrigla cavillone</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.024</v>
+        <v>0.074</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Deltentosteus(Gobius )quadrimaculatus</t>
+          <t>Lophius budegassa</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.005</v>
+        <v>3.146</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1298,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lepidotrigla cavillone</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.1</v>
+        <v>0.602</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1339,19 +1339,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lophius budegassa</t>
+          <t>Microchirus ocellatus</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>MICUOCE</t>
         </is>
       </c>
       <c r="G24">
-        <v>1.277</v>
+        <v>0.042</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1360,7 +1360,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1380,19 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Mullus barbatus</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.091</v>
+        <v>0.209</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1401,7 +1401,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1421,19 +1421,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Merluccius merluccius</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.013</v>
+        <v>0.331</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1442,7 +1442,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1462,19 +1462,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Microchirus ocellatus</t>
+          <t>Pecten jacobaeus</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MICUOCE</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.263</v>
+        <v>3.861</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1483,7 +1483,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1503,19 +1503,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Scorpaena notata</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.188</v>
+        <v>1.092</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1524,7 +1524,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1544,19 +1544,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Scorpaena scrofa</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SCORSCO</t>
         </is>
       </c>
       <c r="G29">
-        <v>6.258</v>
+        <v>0.382</v>
       </c>
       <c r="H29">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1565,7 +1565,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1585,19 +1585,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Scorpaena notata</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G30">
-        <v>1.471</v>
+        <v>0.223</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1606,7 +1606,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Scorpaena scrofa</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SCORSCO</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.206</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1647,7 +1647,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1667,19 +1667,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.376</v>
+        <v>1.581</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1688,7 +1688,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1708,19 +1708,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Torpedo marmorata</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.08500000000000001</v>
+        <v>0.598</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1729,7 +1729,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Trisopterus minutus capelanus</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="G34">
-        <v>2.496</v>
+        <v>0.036</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1770,7 +1770,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1790,28 +1790,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.041</v>
+        <v>0.537</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1831,28 +1831,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Trigloporus lastoviza</t>
+          <t>Algae nd</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>ALGAE</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.076</v>
+        <v>0.007</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1872,28 +1872,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1913,28 +1913,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.458</v>
+        <v>0.002</v>
       </c>
       <c r="H38">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1954,28 +1954,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Anadara transversa</t>
+          <t>Ascidia mentula</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ANADTRA</t>
+          <t>ASCIMEN</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1995,28 +1995,28 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Ascidia virginea</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>ASCIVIR</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2036,28 +2036,28 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Anseropoda placenta</t>
+          <t>Ascidiacea nd</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ANSEPLA</t>
+          <t>ASCIDND</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.004</v>
+        <v>0.076</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I41">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2077,28 +2077,28 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ascidia virginea</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ASCIVIR</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.008</v>
+        <v>0.307</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I42">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2118,28 +2118,28 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ascidiacea nd</t>
+          <t>Bryozoa nd</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ASCIDND</t>
+          <t>BRYOZND</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.142</v>
+        <v>0.001</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="I43">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2159,28 +2159,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Chlamys varia</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>CHLAVAR</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2200,28 +2200,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Coralligenous concretions</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>CORACON</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.043</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H45">
         <v>-1</v>
       </c>
       <c r="I45">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2241,28 +2241,28 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bryozoa nd</t>
+          <t>Dardanus arrosor</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>BRYOZND</t>
+          <t>DARDARR</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="H46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2282,28 +2282,28 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Caryophillia smith</t>
+          <t>Dromia personata</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CARYSMI</t>
+          <t>DROMPER</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.001</v>
+        <v>0.039</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2323,28 +2323,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Chlamys varia</t>
+          <t>Eggs of Raja sp</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CHLAVAR</t>
+          <t>EGGSRAJ</t>
         </is>
       </c>
       <c r="G48">
         <v>0.002</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I48">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2364,28 +2364,28 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Coralligenous concretions</t>
+          <t>Felimare sp</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CORACON</t>
+          <t>FELIMSP</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.494</v>
+        <v>0.003</v>
       </c>
       <c r="H49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Diodora italica</t>
+          <t>Gaidropsarus biscayensis</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DIODITA</t>
+          <t>ANTOMEG</t>
         </is>
       </c>
       <c r="G50">
@@ -2420,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2446,28 +2446,28 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Dromia personata</t>
+          <t>Gastrochaena dubia</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DROMPER</t>
+          <t>GASTDUB</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2487,28 +2487,28 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Eunicidae nd</t>
+          <t>Hyalinoecia tubicola</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>EUNIND</t>
+          <t>HYALTUB</t>
         </is>
       </c>
       <c r="G52">
         <v>0.001</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2528,28 +2528,28 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Fusinus rostratus</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FUSIROS</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2569,28 +2569,28 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Holothuria forskali</t>
+          <t>Ophiothrix sp.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>HOLOFOR</t>
+          <t>OPHIOSP</t>
         </is>
       </c>
       <c r="G54">
-        <v>0.287</v>
+        <v>1.823</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>1720</v>
       </c>
       <c r="I54">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2610,28 +2610,28 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Inachus dorsettensis</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>INACDOR</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G55">
-        <v>0.003</v>
+        <v>0.058</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I55">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2651,28 +2651,28 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Isopoda nd</t>
+          <t>Pagurus prideauxi</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ISOPODA</t>
+          <t>PAGUPRI</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2692,28 +2692,28 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Microcosmus vulgaris</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MICRSUL</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G57">
-        <v>0.144</v>
+        <v>0.005</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2733,28 +2733,28 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G58">
         <v>0.001</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2774,28 +2774,28 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Psammechinus microtuberculatus</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PSAMMIC</t>
         </is>
       </c>
       <c r="G59">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="H59">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I59">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2815,12 +2815,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pagurus cuanensis</t>
+          <t>Sabellidae sp</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PAGUCUA</t>
+          <t>SABESPP</t>
         </is>
       </c>
       <c r="G60">
@@ -2830,13 +2830,13 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2856,28 +2856,28 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pagurus prideauxi</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PAGUPRI</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G61">
-        <v>0.03</v>
+        <v>1.548</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I61">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Parthenope massena</t>
+          <t>Thyone fusus</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PARTMAS</t>
+          <t>THYOFUS</t>
         </is>
       </c>
       <c r="G62">
@@ -2912,13 +2912,13 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2938,350 +2938,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Phallusia mammillata</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PHALMAM</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G63">
-        <v>0.047</v>
+        <v>0.002</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I63">
-        <v>73.96263157894737</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Pilumnus spinifer</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>PILUSPI</t>
-        </is>
-      </c>
-      <c r="G64">
-        <v>0.006</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="I64">
-        <v>73.96263157894737</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Polychaeta n.d. Tubes</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>TUBEPOL</t>
-        </is>
-      </c>
-      <c r="G65">
-        <v>0.007</v>
-      </c>
-      <c r="H65">
-        <v>10</v>
-      </c>
-      <c r="I65">
-        <v>73.96263157894737</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Porifera nd</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>PORIFND</t>
-        </is>
-      </c>
-      <c r="G66">
-        <v>0.541</v>
-      </c>
-      <c r="H66">
-        <v>98</v>
-      </c>
-      <c r="I66">
-        <v>73.96263157894737</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Psammechinus microtuberculatus</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>PSAMMIC</t>
-        </is>
-      </c>
-      <c r="G67">
-        <v>0.055</v>
-      </c>
-      <c r="H67">
-        <v>25</v>
-      </c>
-      <c r="I67">
-        <v>73.96263157894737</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Serpulidae NA</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>SERPSPP</t>
-        </is>
-      </c>
-      <c r="G68">
-        <v>0.001</v>
-      </c>
-      <c r="H68">
-        <v>3</v>
-      </c>
-      <c r="I68">
-        <v>73.96263157894737</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Shells NA</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>SHELLS</t>
-        </is>
-      </c>
-      <c r="G69">
-        <v>0.734</v>
-      </c>
-      <c r="H69">
-        <v>-1</v>
-      </c>
-      <c r="I69">
-        <v>73.96263157894737</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Stones NA</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>STONES</t>
-        </is>
-      </c>
-      <c r="G70">
-        <v>0.011</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>73.96263157894737</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G71">
-        <v>0.007</v>
-      </c>
-      <c r="H71">
-        <v>-1</v>
-      </c>
-      <c r="I71">
-        <v>73.96263157894737</v>
+        <v>74.44403508771929</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_19.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_19.xlsx
@@ -1805,7 +1805,7 @@
         <v>42</v>
       </c>
       <c r="I35">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="36">
@@ -1846,7 +1846,7 @@
         <v>-1</v>
       </c>
       <c r="I36">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="37">
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="I37">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="39">
@@ -1969,7 +1969,7 @@
         <v>10</v>
       </c>
       <c r="I39">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="40">
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="I40">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="41">
@@ -2051,7 +2051,7 @@
         <v>33</v>
       </c>
       <c r="I41">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="42">
@@ -2092,7 +2092,7 @@
         <v>-1</v>
       </c>
       <c r="I42">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="43">
@@ -2133,7 +2133,7 @@
         <v>-1</v>
       </c>
       <c r="I43">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="44">
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="45">
@@ -2215,7 +2215,7 @@
         <v>-1</v>
       </c>
       <c r="I45">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="46">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="47">
@@ -2297,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="I47">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="48">
@@ -2338,7 +2338,7 @@
         <v>-1</v>
       </c>
       <c r="I48">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="49">
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="50">
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="51">
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="52">
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="53">
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="54">
@@ -2584,7 +2584,7 @@
         <v>1720</v>
       </c>
       <c r="I54">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="55">
@@ -2625,7 +2625,7 @@
         <v>40</v>
       </c>
       <c r="I55">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="56">
@@ -2666,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="I56">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="57">
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="I57">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="58">
@@ -2748,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="59">
@@ -2789,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="I59">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="60">
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="61">
@@ -2871,7 +2871,7 @@
         <v>-1</v>
       </c>
       <c r="I61">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="62">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="I62">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
     <row r="63">
@@ -2953,7 +2953,7 @@
         <v>-1</v>
       </c>
       <c r="I63">
-        <v>74.44403508771929</v>
+        <v>93.61576470588236</v>
       </c>
     </row>
   </sheetData>
